--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-01-what-are-dynamic-arrays.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-01-what-are-dynamic-arrays.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{13889FB1-6BE1-4002-8343-FC361BC51203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A0160D0-A8CF-4127-997E-D4C469FDF497}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529FBAF7-3933-4443-BBB0-0A46FF8A2E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamic Arrays" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>UK</t>
   </si>
@@ -136,6 +158,9 @@
   </si>
   <si>
     <t>Unique List</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
   </si>
 </sst>
 </file>
@@ -177,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -196,20 +221,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -220,6 +294,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{952A044A-2C3F-41AC-A05C-710DC2F53500}" name="Table1" displayName="Table1" ref="A2:B21" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A2:B21" xr:uid="{952A044A-2C3F-41AC-A05C-710DC2F53500}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F74A7EBD-6825-4876-85A4-4657981E9EAE}" name="Countries"/>
+    <tableColumn id="2" xr3:uid="{B964520A-F4F0-40A8-A4DA-D27CBE321B3E}" name="Sales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,15 +562,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
-  <dimension ref="A2:O20"/>
+  <dimension ref="A2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" customWidth="1"/>
     <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" customWidth="1"/>
@@ -494,10 +579,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -533,6 +618,10 @@
       <c r="B3">
         <v>8374</v>
       </c>
+      <c r="D3" t="str" cm="1">
+        <f t="array" ref="D3:D10">_xlfn.UNIQUE(A3:A21)</f>
+        <v>UK</v>
+      </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
@@ -543,7 +632,17 @@
         <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="M3" t="str" cm="1">
+        <f t="array" ref="M3:O4">_xlfn._xlws.FILTER(G3:I16,(H3:H16=K3)*(I3:I16=K6))</f>
+        <v>Patrick O'Neil</v>
+      </c>
+      <c r="N3" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="O3" t="str">
+        <v>North</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -553,6 +652,9 @@
       <c r="B4">
         <v>4129</v>
       </c>
+      <c r="D4" t="str">
+        <v>USA</v>
+      </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
@@ -561,6 +663,15 @@
       </c>
       <c r="I4" t="s">
         <v>30</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Molly Merita</v>
+      </c>
+      <c r="N4" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="O4" t="str">
+        <v>North</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -570,6 +681,9 @@
       <c r="B5">
         <v>6163</v>
       </c>
+      <c r="D5" t="str">
+        <v>Canada</v>
+      </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
@@ -590,6 +704,9 @@
       <c r="B6">
         <v>1779</v>
       </c>
+      <c r="D6" t="str">
+        <v>Japan</v>
+      </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
@@ -610,6 +727,9 @@
       <c r="B7">
         <v>2315</v>
       </c>
+      <c r="D7" t="str">
+        <v>China</v>
+      </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
@@ -627,6 +747,9 @@
       <c r="B8">
         <v>4883</v>
       </c>
+      <c r="D8" t="str">
+        <v>Germany</v>
+      </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
@@ -644,6 +767,9 @@
       <c r="B9">
         <v>7244</v>
       </c>
+      <c r="D9" t="str">
+        <v>France</v>
+      </c>
       <c r="G9" t="s">
         <v>18</v>
       </c>
@@ -661,6 +787,9 @@
       <c r="B10">
         <v>4061</v>
       </c>
+      <c r="D10" t="str">
+        <v>Taiwan</v>
+      </c>
       <c r="G10" t="s">
         <v>19</v>
       </c>
@@ -805,8 +934,16 @@
         <v>8901</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>